--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-domain-VitalSigns-Observation-respirationrate</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/no-domain-VitalSigns-Observation-respirationrate</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -481,7 +481,7 @@
     <t>bodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsRespirationRateBodyPositionExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsRespirationRateBodyPositionExtension}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>respirationRegularity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsRespirationRegularityExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsRespirationRegularityExtension}
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>spontaneousBreathing</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsSpontaneousBreathingExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsSpontaneousBreathingExtension}
 </t>
   </si>
   <si>
@@ -521,7 +521,7 @@
     <t>clinicalDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsClinicalDescriptionExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsClinicalDescriptionExtension}
 </t>
   </si>
   <si>
@@ -531,7 +531,7 @@
     <t>respirationDepth</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsRespirationDepthExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsRespirationDepthExtension}
 </t>
   </si>
   <si>
@@ -541,7 +541,7 @@
     <t>inspiredOxygen</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsInspiredOxygenExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsInspiredOxygenExtension}
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
     <t>confoundingFactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
 </t>
   </si>
   <si>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-respirationrate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
